--- a/TestOutPut/HybridResults.xlsx
+++ b/TestOutPut/HybridResults.xlsx
@@ -1,22 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent>
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\eclipse-workspace\ERP_Hybrid\TestInput\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr documentId="13_ncr:1_{7C4F71E3-6036-4A43-A55F-FADDAAB4DCF2}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView activeTab="1" windowHeight="8940" windowWidth="19815" xWindow="480" yWindow="390"/>
+    <workbookView activeTab="5" firstSheet="2" windowHeight="11160" windowWidth="20730" xWindow="-120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-120"/>
   </bookViews>
   <sheets>
     <sheet name="MasterTestCases" r:id="rId1" sheetId="1"/>
     <sheet name="ApplicationLogin" r:id="rId2" sheetId="2"/>
-    <sheet name="Sheet3" r:id="rId3" sheetId="3"/>
+    <sheet name="StockItemDeletion" r:id="rId3" sheetId="3"/>
+    <sheet name="SupplierDeletion" r:id="rId4" sheetId="4"/>
+    <sheet name="PurchasesDeletion" r:id="rId5" sheetId="5"/>
+    <sheet name="CustomerDeletion" r:id="rId6" sheetId="6"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="84">
   <si>
     <t>TCID</t>
   </si>
@@ -39,21 +48,12 @@
     <t>TC002</t>
   </si>
   <si>
-    <t>Suppliers</t>
-  </si>
-  <si>
     <t>TC003</t>
   </si>
   <si>
-    <t>StockItems</t>
-  </si>
-  <si>
     <t>TC004</t>
   </si>
   <si>
-    <t>Customers</t>
-  </si>
-  <si>
     <t>TC005</t>
   </si>
   <si>
@@ -96,9 +96,6 @@
     <t>openApplication</t>
   </si>
   <si>
-    <t>wait for username</t>
-  </si>
-  <si>
     <t>waitForElement</t>
   </si>
   <si>
@@ -114,9 +111,6 @@
     <t>admin</t>
   </si>
   <si>
-    <t>wait for password</t>
-  </si>
-  <si>
     <t>xpath</t>
   </si>
   <si>
@@ -126,9 +120,6 @@
     <t>master</t>
   </si>
   <si>
-    <t>wait for login button</t>
-  </si>
-  <si>
     <t>id</t>
   </si>
   <si>
@@ -147,9 +138,6 @@
     <t>btnsubmit</t>
   </si>
   <si>
-    <t>wait for logout</t>
-  </si>
-  <si>
     <t>//a[@id='logout']</t>
   </si>
   <si>
@@ -180,18 +168,123 @@
     <t>closeBrowser</t>
   </si>
   <si>
+    <t>wait for ok logout</t>
+  </si>
+  <si>
+    <t>StockItemDeletion</t>
+  </si>
+  <si>
+    <t>Click Stock Item</t>
+  </si>
+  <si>
+    <t>Click Checkbox</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wait for url to be loaded </t>
+  </si>
+  <si>
+    <t>Wait for username</t>
+  </si>
+  <si>
+    <t>Wait for password</t>
+  </si>
+  <si>
+    <t>(//button[@class='dropdown-toggle btn btn-default btn-sm btn-sm'])[1]</t>
+  </si>
+  <si>
+    <t>Click Action Button</t>
+  </si>
+  <si>
+    <t>Click Delete</t>
+  </si>
+  <si>
+    <t>//a[@class='ewAction ewMultiDelete']</t>
+  </si>
+  <si>
+    <t>Wait for alert</t>
+  </si>
+  <si>
+    <t>//button[@class='ajs-button btn btn-primary']</t>
+  </si>
+  <si>
+    <t>Click ok</t>
+  </si>
+  <si>
+    <t>Wait for sometime</t>
+  </si>
+  <si>
+    <t>Click Ok Again</t>
+  </si>
+  <si>
+    <t>(//body//div//li)[78]</t>
+  </si>
+  <si>
+    <t>(//table//tbody//tr//td)[2]</t>
+  </si>
+  <si>
+    <t>TC006</t>
+  </si>
+  <si>
+    <t>SupplierDeletion</t>
+  </si>
+  <si>
+    <t>Click Supplier</t>
+  </si>
+  <si>
+    <t>(//button[@class='ajs-button btn btn-primary'])[2]</t>
+  </si>
+  <si>
+    <t>(//body//div//li)[81]</t>
+  </si>
+  <si>
+    <t>PurchasesDeletion</t>
+  </si>
+  <si>
+    <t>Click Purchases</t>
+  </si>
+  <si>
+    <t>(//body//div//li)[82]</t>
+  </si>
+  <si>
+    <t>(//span[@data-phrase='DeleteSelectedLink'])[1]</t>
+  </si>
+  <si>
+    <t>(//button[@class='ajs-button btn btn-primary'])</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wait for alert </t>
+  </si>
+  <si>
+    <t>Click Customer</t>
+  </si>
+  <si>
+    <t>(//body//div//li)[83]</t>
+  </si>
+  <si>
+    <t>(//table//tbody//tr//td)[3]</t>
+  </si>
+  <si>
+    <t>CustomerDeletion</t>
+  </si>
+  <si>
+    <t>Wait for checkbox</t>
+  </si>
+  <si>
+    <t>Blocked</t>
+  </si>
+  <si>
     <t>Pass</t>
   </si>
   <si>
-    <t>Blocked</t>
+    <t>Fail</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="38">
+  <fonts count="47" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -224,184 +317,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -419,6 +346,228 @@
       <name val="Calibri"/>
       <sz val="11.0"/>
       <color indexed="12"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="12"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
       <b val="true"/>
     </font>
     <font>
@@ -442,7 +591,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -450,17 +599,39 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="50">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -493,12 +664,29 @@
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -545,7 +733,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin panose="020F0302020204030204" typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -577,9 +765,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -611,6 +817,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -786,21 +1010,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="8.28515625" collapsed="false"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="20.5703125" collapsed="false"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="23.0" collapsed="false"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="21.28515625" collapsed="false"/>
   </cols>
   <sheetData>
-    <row ht="21" r="1" spans="1:4">
+    <row ht="21" r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -814,7 +1038,7 @@
         <v>3</v>
       </c>
     </row>
-    <row ht="18.75" r="2" spans="1:4">
+    <row ht="18.75" r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -822,82 +1046,97 @@
         <v>5</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" t="s" s="33">
-        <v>54</v>
-      </c>
-    </row>
-    <row ht="18.75" r="3" spans="1:4">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s" s="9">
+        <v>81</v>
+      </c>
+    </row>
+    <row ht="18.75" r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s" s="10">
+        <v>81</v>
+      </c>
+    </row>
+    <row ht="18.75" r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" t="s" s="34">
-        <v>55</v>
-      </c>
-    </row>
-    <row ht="18.75" r="4" spans="1:4">
-      <c r="A4" s="2" t="s">
+      <c r="B4" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s" s="11">
+        <v>81</v>
+      </c>
+    </row>
+    <row ht="18.75" r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B5" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s" s="12">
+        <v>81</v>
+      </c>
+    </row>
+    <row ht="18.75" r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" t="s" s="35">
-        <v>55</v>
-      </c>
-    </row>
-    <row ht="18.75" r="5" spans="1:4">
-      <c r="A5" s="2" t="s">
+      <c r="B6" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" t="s" s="48">
+        <v>82</v>
+      </c>
+    </row>
+    <row ht="18.75" r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" t="s" s="36">
-        <v>55</v>
-      </c>
-    </row>
-    <row ht="18.75" r="6" spans="1:4">
-      <c r="A6" s="2" t="s">
+      <c r="C7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" t="s" s="37">
-        <v>55</v>
+      <c r="D7" t="s" s="49">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="A8:B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="24.42578125" collapsed="false"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="19.7109375" collapsed="false"/>
@@ -906,195 +1145,171 @@
     <col min="5" max="5" bestFit="true" customWidth="true" width="31.85546875" collapsed="false"/>
   </cols>
   <sheetData>
-    <row ht="21" r="1" spans="1:6">
+    <row ht="21" r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row ht="15.75" r="2" spans="1:6">
+    <row ht="15.75" r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row ht="15.75" r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2" t="s" s="4">
-        <v>54</v>
-      </c>
-    </row>
-    <row ht="15.75" r="3" spans="1:6">
-      <c r="A3" s="3" t="s">
+      <c r="C3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row ht="15.75" r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" t="s" s="6">
-        <v>54</v>
-      </c>
-    </row>
-    <row ht="15.75" r="4" spans="1:6">
-      <c r="A4" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" s="3" t="s">
+      <c r="D4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E4" s="3">
-        <v>10</v>
-      </c>
-      <c r="F4" t="s" s="8">
-        <v>54</v>
-      </c>
-    </row>
-    <row ht="15.75" r="5" spans="1:6">
+    </row>
+    <row ht="15.75" r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>29</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F5" t="s" s="10">
-        <v>54</v>
-      </c>
-    </row>
-    <row ht="15.75" r="6" spans="1:6">
+    </row>
+    <row ht="15.75" r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>32</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E6" s="3">
-        <v>10</v>
-      </c>
-      <c r="F6" t="s" s="12">
-        <v>54</v>
-      </c>
-    </row>
-    <row ht="15.75" r="7" spans="1:6">
+        <v>36</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row ht="15.75" r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F7" t="s" s="14">
-        <v>54</v>
-      </c>
-    </row>
-    <row ht="15.75" r="8" spans="1:6">
+        <v>40</v>
+      </c>
+    </row>
+    <row ht="15.75" r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>42</v>
       </c>
       <c r="E8" s="3">
         <v>10</v>
       </c>
-      <c r="F8" t="s" s="16">
-        <v>54</v>
-      </c>
-    </row>
-    <row ht="15.75" r="9" spans="1:6">
+    </row>
+    <row ht="15.75" r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="E9" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row ht="15.75" r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="B10" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F9" t="s" s="18">
-        <v>54</v>
-      </c>
-    </row>
-    <row ht="15.75" r="10" spans="1:6">
-      <c r="A10" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>27</v>
-      </c>
       <c r="C10" s="3" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>44</v>
@@ -1102,128 +1317,39 @@
       <c r="E10" s="3">
         <v>10</v>
       </c>
-      <c r="F10" t="s" s="20">
-        <v>54</v>
-      </c>
-    </row>
-    <row ht="15.75" r="11" spans="1:6">
+    </row>
+    <row ht="15.75" r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row ht="15.75" r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B12" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="F11" t="s" s="22">
-        <v>54</v>
-      </c>
-    </row>
-    <row ht="15.75" r="12" spans="1:6">
-      <c r="A12" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>27</v>
-      </c>
       <c r="C12" s="3" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E12" s="3">
-        <v>10</v>
-      </c>
-      <c r="F12" t="s" s="24">
-        <v>54</v>
-      </c>
-    </row>
-    <row ht="15.75" r="13" spans="1:6">
-      <c r="A13" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F13" t="s" s="26">
-        <v>54</v>
-      </c>
-    </row>
-    <row ht="15.75" r="14" spans="1:6">
-      <c r="A14" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E14" s="3">
-        <v>10</v>
-      </c>
-      <c r="F14" t="s" s="28">
-        <v>54</v>
-      </c>
-    </row>
-    <row ht="15.75" r="15" spans="1:6">
-      <c r="A15" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F15" t="s" s="30">
-        <v>54</v>
-      </c>
-    </row>
-    <row ht="15.75" r="16" spans="1:6">
-      <c r="A16" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F16" t="s" s="32">
-        <v>54</v>
+        <v>20</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1233,13 +1359,1398 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="28.42578125" collapsed="false"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="19.7109375" collapsed="false"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="16.5703125" collapsed="false"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="67.0" collapsed="false"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="12.140625" collapsed="false"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="8.85546875" collapsed="false"/>
+  </cols>
+  <sheetData>
+    <row ht="21" r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row ht="15.75" r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="5"/>
+    </row>
+    <row ht="15.75" r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="7">
+        <v>10</v>
+      </c>
+      <c r="F3" s="5"/>
+    </row>
+    <row ht="15.75" r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="5"/>
+    </row>
+    <row ht="15.75" r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="7">
+        <v>10</v>
+      </c>
+      <c r="F5" s="5"/>
+    </row>
+    <row ht="15.75" r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="5"/>
+    </row>
+    <row ht="15.75" r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="7">
+        <v>10</v>
+      </c>
+      <c r="F7" s="5"/>
+    </row>
+    <row ht="15.75" r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="5"/>
+    </row>
+    <row ht="15.75" r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="5"/>
+    </row>
+    <row ht="15.75" r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="5"/>
+    </row>
+    <row ht="15.75" r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="5"/>
+    </row>
+    <row ht="15.75" r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="5"/>
+    </row>
+    <row ht="15.75" r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" s="5"/>
+    </row>
+    <row ht="15.75" r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="7">
+        <v>10</v>
+      </c>
+      <c r="F14" s="5"/>
+    </row>
+    <row ht="15.75" r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" s="5"/>
+    </row>
+    <row ht="15.75" r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F16" s="5"/>
+    </row>
+    <row ht="15.75" r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17" s="7">
+        <v>20</v>
+      </c>
+      <c r="F17" s="5"/>
+    </row>
+    <row ht="15.75" r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F18" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB33CE05-E238-4F88-8C22-72D1943AF897}">
+  <dimension ref="A1:G18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F18" sqref="A1:F18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="26.5703125" collapsed="false"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="19.7109375" collapsed="false"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="16.5703125" collapsed="false"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="67.0" collapsed="false"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="12.140625" collapsed="false"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="8.85546875" collapsed="false"/>
+  </cols>
+  <sheetData>
+    <row ht="21" r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row ht="15.75" r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="5"/>
+    </row>
+    <row ht="15.75" r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="7">
+        <v>10</v>
+      </c>
+      <c r="F3" s="5"/>
+    </row>
+    <row ht="15.75" r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="5"/>
+    </row>
+    <row ht="15.75" r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="7">
+        <v>10</v>
+      </c>
+      <c r="F5" s="5"/>
+    </row>
+    <row ht="15.75" r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="5"/>
+    </row>
+    <row ht="15.75" r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="7">
+        <v>10</v>
+      </c>
+      <c r="F7" s="5"/>
+    </row>
+    <row ht="15.75" r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="5"/>
+    </row>
+    <row ht="15.75" r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="5"/>
+    </row>
+    <row ht="15.75" r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="5"/>
+    </row>
+    <row ht="15.75" r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="5"/>
+    </row>
+    <row ht="15.75" r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="5"/>
+    </row>
+    <row ht="15.75" r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" s="5"/>
+    </row>
+    <row ht="15.75" r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E14" s="7">
+        <v>10</v>
+      </c>
+      <c r="F14" s="5"/>
+    </row>
+    <row ht="15.75" r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" s="5"/>
+    </row>
+    <row ht="15.75" r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F16" s="5"/>
+    </row>
+    <row ht="15.75" r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17" s="7">
+        <v>20</v>
+      </c>
+      <c r="F17" s="5"/>
+    </row>
+    <row ht="15.75" r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F18" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{363552BA-E0EE-4F99-9278-0EE94A8FF8C6}">
+  <dimension ref="A1:G15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:XFD15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="26.5703125" collapsed="false"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="19.7109375" collapsed="false"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="16.5703125" collapsed="false"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="67.0" collapsed="false"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="12.140625" collapsed="false"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="8.85546875" collapsed="false"/>
+  </cols>
+  <sheetData>
+    <row ht="21" r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row ht="15.75" r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="5"/>
+    </row>
+    <row ht="15.75" r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="7">
+        <v>10</v>
+      </c>
+      <c r="F3" s="5"/>
+    </row>
+    <row ht="15.75" r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="5"/>
+    </row>
+    <row ht="15.75" r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="7">
+        <v>10</v>
+      </c>
+      <c r="F5" s="5"/>
+    </row>
+    <row ht="15.75" r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="5"/>
+    </row>
+    <row ht="15.75" r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="7">
+        <v>10</v>
+      </c>
+      <c r="F7" s="5"/>
+    </row>
+    <row ht="15.75" r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="5"/>
+    </row>
+    <row ht="15.75" r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="5"/>
+    </row>
+    <row ht="15.75" r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="5"/>
+    </row>
+    <row ht="15.75" r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="5"/>
+    </row>
+    <row ht="15.75" r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="5"/>
+    </row>
+    <row ht="15.75" r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" s="5"/>
+    </row>
+    <row ht="15.75" r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="7">
+        <v>10</v>
+      </c>
+      <c r="F14" s="5"/>
+    </row>
+    <row ht="15.75" r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6716FCA6-95D0-4B0A-8105-7A147B95297E}">
+  <dimension ref="A1:G19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="26.5703125" collapsed="false"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="19.7109375" collapsed="false"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="16.5703125" collapsed="false"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="67.0" collapsed="false"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="12.140625" collapsed="false"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="8.85546875" collapsed="false"/>
+  </cols>
+  <sheetData>
+    <row ht="21" r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row ht="15.75" r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" t="s" s="13">
+        <v>82</v>
+      </c>
+    </row>
+    <row ht="15.75" r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="7">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s" s="15">
+        <v>82</v>
+      </c>
+    </row>
+    <row ht="15.75" r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" t="s" s="17">
+        <v>82</v>
+      </c>
+    </row>
+    <row ht="15.75" r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="7">
+        <v>10</v>
+      </c>
+      <c r="F5" t="s" s="19">
+        <v>82</v>
+      </c>
+    </row>
+    <row ht="15.75" r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" t="s" s="21">
+        <v>82</v>
+      </c>
+    </row>
+    <row ht="15.75" r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="7">
+        <v>10</v>
+      </c>
+      <c r="F7" t="s" s="23">
+        <v>82</v>
+      </c>
+    </row>
+    <row ht="15.75" r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" t="s" s="25">
+        <v>82</v>
+      </c>
+    </row>
+    <row ht="15.75" r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" t="s" s="27">
+        <v>82</v>
+      </c>
+    </row>
+    <row ht="15.75" r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" t="s" s="29">
+        <v>82</v>
+      </c>
+    </row>
+    <row ht="15.75" r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="E11" s="7">
+        <v>10</v>
+      </c>
+      <c r="F11" t="s" s="31">
+        <v>82</v>
+      </c>
+    </row>
+    <row ht="15.75" r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" t="s" s="33">
+        <v>82</v>
+      </c>
+    </row>
+    <row ht="15.75" r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" t="s" s="35">
+        <v>82</v>
+      </c>
+    </row>
+    <row ht="15.75" r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" t="s" s="37">
+        <v>82</v>
+      </c>
+    </row>
+    <row ht="15.75" r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E15" s="7">
+        <v>10</v>
+      </c>
+      <c r="F15" t="s" s="39">
+        <v>83</v>
+      </c>
+    </row>
+    <row ht="15.75" r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F16" t="s" s="41">
+        <v>83</v>
+      </c>
+    </row>
+    <row ht="15.75" r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F17" t="s" s="43">
+        <v>82</v>
+      </c>
+    </row>
+    <row ht="15.75" r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18" s="7">
+        <v>20</v>
+      </c>
+      <c r="F18" t="s" s="45">
+        <v>82</v>
+      </c>
+    </row>
+    <row ht="15.75" r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F19" t="s" s="47">
+        <v>82</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>